--- a/relazioni/esperienza_4/codici/circuito_RC.xlsx
+++ b/relazioni/esperienza_4/codici/circuito_RC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolss\Desktop\Università\02 Secondo anno\Lab\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_4\codici\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_4\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843D4E6-03DD-4930-B8BA-ECE126E50680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6537FD-5235-4779-A242-BF75EA9A61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E53D3B92-3A35-43B7-8ADF-E3EF825D73FE}"/>
   </bookViews>
@@ -170,7 +170,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,7 +188,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -684,7 +684,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1376,7 +1376,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3418,8 +3418,8 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1310640" cy="243015"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -3583,7 +3583,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -3814,7 +3814,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A787FBA-B9A3-4B24-AA34-B954421D16E2}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5262,7 +5262,7 @@
         <v>176.99115044247787</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I15" si="2">E14</f>
+        <f t="shared" ref="I5:I14" si="2">E14</f>
         <v>76.3</v>
       </c>
       <c r="J5">

--- a/relazioni/esperienza_4/codici/circuito_RC.xlsx
+++ b/relazioni/esperienza_4/codici/circuito_RC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_4\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6537FD-5235-4779-A242-BF75EA9A61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA61728-C0EB-4001-A4A1-41A23D8F54C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E53D3B92-3A35-43B7-8ADF-E3EF825D73FE}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>R</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>V(t)</t>
-  </si>
-  <si>
-    <t>log(V(t))</t>
   </si>
   <si>
     <t>"-1/RC"</t>
@@ -115,6 +109,24 @@
   </si>
   <si>
     <t>Frequenza</t>
+  </si>
+  <si>
+    <t>log V</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>atteso</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> σ</t>
+  </si>
+  <si>
+    <t>Δ</t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,16 +170,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3699,16 +3728,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>39279</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160923</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>534186</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>344079</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160924</xdr:rowOff>
+      <xdr:colOff>226244</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3735,16 +3764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564901</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>256959</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4132,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A787FBA-B9A3-4B24-AA34-B954421D16E2}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4142,7 +4171,7 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="22.21875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4166,10 +4195,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
@@ -4178,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R1" cm="1">
         <f t="array" ref="R1:S1">LINEST(M2:M24,I2:I24)</f>
@@ -4188,7 +4217,7 @@
         <v>3.3758333996026235</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -4331,6 +4360,16 @@
         <f t="shared" si="4"/>
         <v>3.1267605359603952</v>
       </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D6" t="e">
@@ -4360,6 +4399,21 @@
         <f t="shared" si="4"/>
         <v>3.0726933146901194</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="4">
+        <f>0.000002284</f>
+        <v>2.2840000000000001E-6</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>0.00000005502</f>
+        <v>5.5019999999999999E-8</v>
+      </c>
+      <c r="R6" s="4">
+        <f>3*Q6</f>
+        <v>1.6506E-7</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D7" t="e">
@@ -4389,6 +4443,15 @@
         <f t="shared" si="4"/>
         <v>3.0349529867072724</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3">
+        <f>P2*O2</f>
+        <v>1.6132000000000001E-6</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D8" t="e">
@@ -5153,11 +5216,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -5166,13 +5229,13 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5180,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>75</v>
@@ -5210,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>4.9500000000000004E-3</v>

--- a/relazioni/esperienza_4/codici/circuito_RC.xlsx
+++ b/relazioni/esperienza_4/codici/circuito_RC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolss\Desktop\Università\02 Secondo anno\Lab\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_4\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843D4E6-03DD-4930-B8BA-ECE126E50680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01165C6-9777-4300-B713-812E7E184040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E53D3B92-3A35-43B7-8ADF-E3EF825D73FE}"/>
   </bookViews>
@@ -3418,8 +3418,8 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1310640" cy="243015"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -3583,7 +3583,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A787FBA-B9A3-4B24-AA34-B954421D16E2}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4235,7 +4235,7 @@
         <f>400*10^(-12)</f>
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <f>-1/(O2*P2)</f>
         <v>-619885.94098685845</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>176.99115044247787</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I15" si="2">E14</f>
+        <f t="shared" ref="I5:I14" si="2">E14</f>
         <v>76.3</v>
       </c>
       <c r="J5">
